--- a/test/src/org/tms/io/sampleMath.xlsx
+++ b/test/src/org/tms/io/sampleMath.xlsx
@@ -610,7 +610,7 @@
       </c>
       <c r="B2">
         <f ca="1">RAND()</f>
-        <v>0.98600769679316791</v>
+        <v>0.27597019537165068</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -626,7 +626,7 @@
       </c>
       <c r="B3">
         <f ca="1">RANDBETWEEN(-5,20)</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
